--- a/excel/resource.xlsx
+++ b/excel/resource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>*</t>
   </si>
@@ -37,16 +37,19 @@
     <t>faa</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>STRING</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>key</t>
+    <t>fdfdd</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
   <si>
     <t>名称</t>
@@ -61,15 +64,10 @@
     <t>品质</t>
   </si>
   <si>
-    <t>放松</t>
-  </si>
-  <si>
-    <t xml:space="preserve">品质(蓝 紫 橙 红 彩)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">品质11
-</t>
+    <t>测试float</t>
+  </si>
+  <si>
+    <t>测试bool</t>
   </si>
   <si>
     <t>元宝</t>
@@ -78,10 +76,16 @@
     <t>珍贵的流通货币，用于购买各种资源，可充值获得</t>
   </si>
   <si>
-    <t>fsfs</t>
+    <t>true</t>
   </si>
   <si>
     <t>银两</t>
+  </si>
+  <si>
+    <t>银两dfsfsfsd</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -269,7 +273,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,7 +741,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,6 +754,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -759,10 +766,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -771,6 +778,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -778,6 +788,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1131,13 +1144,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
@@ -1145,156 +1158,166 @@
     <col min="4" max="4" width="7.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="49.625" style="2" customWidth="1"/>
     <col min="6" max="7" width="21.5" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="21.5" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="H2" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>9</v>
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="14">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>15</v>
+      <c r="E6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="15">
+        <v>99</v>
+      </c>
+      <c r="G6" s="15">
+        <v>5.2</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
+    <row r="7" spans="1:8">
+      <c r="A7" s="17"/>
+      <c r="B7" s="14">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="14">
+        <v>22</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="15">
+        <v>2</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="12">
-        <v>11</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="13">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12">
-        <v>2</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="12">
-        <v>22</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1111</v>
-      </c>
-      <c r="F8" s="13">
-        <v>2</v>
-      </c>
-      <c r="G8" s="13"/>
+    <row r="15" spans="8:8">
+      <c r="H15" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
